--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC0D770-ED62-402D-BA6B-D8B1E7422ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55514B1-F2CA-4482-B885-8BA309F53175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="120">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -226,12 +226,6 @@
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -378,42 +372,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">#TCs </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="17"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>passed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>[de executat in testarea de regresie]</t>
-    </r>
-  </si>
-  <si>
     <t>VVSS, Info Romana, 2023-2024</t>
   </si>
   <si>
@@ -501,12 +459,6 @@
     <t xml:space="preserve">                  F02. La inchiderea restaurantului se afiseaza totalul incasarilor realizate, pentru fiecare tip de plata.</t>
   </si>
   <si>
-    <t>"CARD"</t>
-  </si>
-  <si>
-    <t>"CARDD"</t>
-  </si>
-  <si>
     <t>Invalid payment type</t>
   </si>
   <si>
@@ -547,13 +499,61 @@
   </si>
   <si>
     <t>CARDD</t>
+  </si>
+  <si>
+    <t>Payment list = [{200,CARD},{300,CARD},{100,CASH}]</t>
+  </si>
+  <si>
+    <t>"CARD", Payment list = [{200,CARD},{300,CARD},{100,CASH}]</t>
+  </si>
+  <si>
+    <t>"CARDD", Payment list = [{200,CARD},{300,CARD},{100,CASH}]</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>"CARD", Payment list = []</t>
+  </si>
+  <si>
+    <t>1,2,4,5,12</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>"CARD", Payment list = [{200,CARD]</t>
+  </si>
+  <si>
+    <t>"CARD", Payment list = [{200,CARD},{300,CASH}]</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>CARD, Payment list = [{200,CASH]</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>1, 2,4, 6,8,9,11,12</t>
+  </si>
+  <si>
+    <t>CARD, Payment list = null</t>
+  </si>
+  <si>
+    <t>1,2,4,6,7,12</t>
+  </si>
+  <si>
+    <t>imposibil de reprodus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,6 +688,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -920,17 +926,6 @@
     </border>
     <border>
       <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1066,9 +1061,81 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="double">
         <color indexed="64"/>
@@ -1084,89 +1151,6 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1222,11 +1206,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1273,9 +1277,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1297,7 +1298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1322,7 +1322,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,17 +1331,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,176 +1358,182 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2016,21 +2028,21 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="D1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
-        <v>64</v>
+      <c r="B2" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>39</v>
@@ -2042,22 +2054,22 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
+      <c r="N5" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>58</v>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -2065,13 +2077,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="29">
+      <c r="N7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="28">
         <v>233</v>
       </c>
     </row>
@@ -2080,30 +2092,30 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="29">
+      <c r="N8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="28">
         <v>233</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" s="29">
+      <c r="N9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="28">
         <v>233</v>
       </c>
     </row>
@@ -2113,8 +2125,8 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>80</v>
+      <c r="B11" s="37" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2145,10 +2157,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:T24"/>
+  <dimension ref="B1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2160,18 +2172,18 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="D1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -2184,341 +2196,336 @@
       <c r="K3" s="48"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="42" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="I6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="Q6" s="42" t="s">
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="Q6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
       <c r="I8" s="12"/>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="36">
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="40"/>
-      <c r="Q9" s="59" t="s">
+      <c r="C9" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="I9" s="38"/>
+      <c r="Q9" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="36">
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="50" t="s">
+      <c r="C10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="59" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="Q10" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="36">
+      <c r="S10" s="45"/>
+      <c r="T10" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="C11" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="Q13" s="42" t="s">
+      <c r="C13" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="Q13" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="C14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="Q15" s="34" t="s">
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="Q15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="60" t="s">
+      <c r="R15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="Q16" s="37" t="s">
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="Q16" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="R16" s="45" t="s">
+      <c r="R16" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="Q17" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
+      <c r="Q18" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
+      <c r="Q19" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="Q17" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" s="45" t="s">
+      <c r="R19" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="Q18" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="R18" s="45" t="s">
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
+      <c r="Q20" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="37" t="s">
+      <c r="R20" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+    </row>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
+      <c r="Q21" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="37" t="s">
+      <c r="R21" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="R20" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="54"/>
+    </row>
+    <row r="24" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2535,6 +2542,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2550,13 +2565,14 @@
   <dimension ref="B1:AB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.21875" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
@@ -2580,16 +2596,16 @@
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="D1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B3" s="109" t="s">
-        <v>92</v>
+      <c r="B3" s="65" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -2600,69 +2616,69 @@
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
     </row>
     <row r="7" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="69" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="64" t="s">
         <v>20</v>
       </c>
@@ -2674,51 +2690,51 @@
       <c r="AB7" s="64"/>
     </row>
     <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="61"/>
-      <c r="C8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="65" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="61"/>
+      <c r="P8" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="R8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="65" t="s">
+      <c r="R8" s="63" t="s">
         <v>53</v>
+      </c>
+      <c r="S8" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="U8" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="V8" s="64">
         <v>0</v>
@@ -2743,15 +2759,15 @@
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="61"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>25</v>
@@ -2777,12 +2793,12 @@
       <c r="O9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="64"/>
       <c r="W9" s="64"/>
       <c r="X9" s="64"/>
@@ -2796,30 +2812,30 @@
         <v>49</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D10" s="15">
         <v>500</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O10" s="17"/>
       <c r="P10" s="18"/>
@@ -2827,56 +2843,59 @@
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="U10" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
     </row>
     <row r="11" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="19" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="W11" s="19"/>
       <c r="X11" s="19"/>
@@ -2887,28 +2906,45 @@
     </row>
     <row r="12" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
+        <v>107</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
+      <c r="O12" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
+      <c r="V12" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -2916,62 +2952,99 @@
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
     </row>
-    <row r="13" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="15">
+        <v>200</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="N13" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="V13" s="19"/>
       <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
+      <c r="X13" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
     </row>
-    <row r="14" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
+        <v>113</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="15">
+        <v>200</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="N14" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="O14" s="17"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="U14" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
+      <c r="W14" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -2980,29 +3053,47 @@
     </row>
     <row r="15" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
+      <c r="T15" s="18" t="s">
+        <v>95</v>
+      </c>
       <c r="U15" s="18"/>
       <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
+      <c r="W15" s="19" t="s">
+        <v>95</v>
+      </c>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
@@ -3010,24 +3101,39 @@
       <c r="AB15" s="19"/>
     </row>
     <row r="16" spans="2:28" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
+      <c r="B16" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="109">
+        <v>0</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="K16" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="R16" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3044,6 +3150,20 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3055,10 +3175,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3066,7 +3186,7 @@
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
@@ -3076,57 +3196,57 @@
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="70" t="s">
+      <c r="D1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="73" t="s">
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="74"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="72"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="83"/>
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="93"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3139,10 +3259,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="76"/>
+      <c r="I5" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="97"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3150,137 +3270,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23">
+    <row r="6" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22">
         <v>9</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="98" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="E6" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="24">
+      <c r="H6" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="105"/>
+      <c r="K6" s="23">
         <v>500</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="22">
         <v>10</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23" t="s">
+      <c r="E7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
+      <c r="H7" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="95"/>
+      <c r="K7" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="22">
         <v>11</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="E8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="74"/>
-      <c r="K8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="H8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="95"/>
+      <c r="K8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="22">
         <v>12</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="E9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="95"/>
+      <c r="K9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3296,10 +3416,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="76"/>
+      <c r="I10" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="97"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3307,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3320,136 +3440,168 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="88" t="s">
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="2:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="72"/>
+      <c r="H13" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="107" t="s">
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="88" t="s">
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="95" t="s">
+      <c r="F14" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="96"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="94" t="s">
+      <c r="G14" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="J14" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="100" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="102" t="s">
+      <c r="K14" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="M14" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="N14" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="O14" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="105" t="s">
+      <c r="P14" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="80" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="97"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="100"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="29">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="83"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="81"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="28">
         <f>SUM(C16:D16)</f>
         <v>2</v>
       </c>
-      <c r="C16" s="26">
-        <v>1</v>
-      </c>
-      <c r="D16" s="26">
-        <v>1</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="C16" s="25">
+        <v>1</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
         <v>91.66</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="29">
-        <v>2</v>
-      </c>
-      <c r="J16" s="26">
-        <v>2</v>
-      </c>
-      <c r="K16" s="30">
+        <v>101</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1</v>
+      </c>
+      <c r="J16" s="25">
+        <v>1</v>
+      </c>
+      <c r="K16" s="29">
         <v>0</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>91.66</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="32">
-        <f>C16</f>
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="N16" s="28">
+        <v>1</v>
+      </c>
+      <c r="O16" s="25">
+        <v>1</v>
+      </c>
+      <c r="P16" s="29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="G14:G15"/>
@@ -3466,21 +3618,6 @@
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3488,12 +3625,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3637,6 +3768,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3647,15 +3784,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3673,6 +3801,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
